--- a/ER.xlsx
+++ b/ER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" tabRatio="500"/>
+    <workbookView xWindow="29820" yWindow="-680" windowWidth="18400" windowHeight="16720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Group</t>
   </si>
@@ -83,16 +83,13 @@
     <t>Item</t>
   </si>
   <si>
-    <t>categoryId</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
     <t>capacity</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -165,8 +162,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="G4:G10" totalsRowShown="0">
-  <autoFilter ref="G4:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="G4:G9" totalsRowShown="0">
+  <autoFilter ref="G4:G9"/>
   <tableColumns count="1">
     <tableColumn id="1" name="RSVP"/>
   </tableColumns>
@@ -185,16 +182,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table2467" displayName="Table2467" ref="C16:C20" totalsRowShown="0">
-  <autoFilter ref="C16:C20"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Category"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table2468" displayName="Table2468" ref="G16:G21" totalsRowShown="0">
   <autoFilter ref="G16:G21"/>
   <tableColumns count="1">
@@ -469,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
@@ -522,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
@@ -533,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
@@ -541,16 +528,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
@@ -568,20 +552,14 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>12</v>
       </c>
@@ -589,21 +567,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>4</v>
       </c>
@@ -611,10 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -622,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -632,13 +601,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>